--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
@@ -63,19 +63,19 @@
     <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-01|net demand for safety|000006</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000015</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for safety|000027</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000006</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-01|net demand for safety|000011</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for safety|000020</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
   </si>
   <si>
     <t>MAT_A</t>
-  </si>
-  <si>
-    <t>MAT_B</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -543,19 +543,19 @@
         <v>45296</v>
       </c>
       <c r="I2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
       </c>
       <c r="K2">
-        <v>0.996</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="L2">
-        <v>0.996</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="M2">
-        <v>0.95</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -584,19 +584,19 @@
         <v>45296</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
       </c>
       <c r="K3">
-        <v>0.996</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="L3">
-        <v>0.996</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="M3">
-        <v>0.95</v>
+        <v>0.9675</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -607,7 +607,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -625,19 +625,19 @@
         <v>45296</v>
       </c>
       <c r="I4">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>0.996</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="L4">
-        <v>0.996</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="M4">
-        <v>0.95</v>
+        <v>0.9675</v>
       </c>
     </row>
   </sheetData>
@@ -711,19 +711,19 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H2">
-        <v>99.59999999999999</v>
+        <v>99.39999999999999</v>
       </c>
       <c r="I2">
-        <v>190</v>
+        <v>193.5</v>
       </c>
       <c r="J2">
-        <v>0.996</v>
+        <v>0.9939999999999999</v>
       </c>
       <c r="K2">
-        <v>0.95</v>
+        <v>0.9675</v>
       </c>
       <c r="L2" t="s">
         <v>28</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,19 +63,13 @@
     <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000006</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-01|net demand for safety|000011</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000015</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for safety|000020</t>
   </si>
   <si>
     <t>MAT_B</t>
-  </si>
-  <si>
-    <t>MAT_A</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -470,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +519,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
         <v>45292</v>
@@ -543,19 +537,19 @@
         <v>45296</v>
       </c>
       <c r="I2">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2">
-        <v>0.9939999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="L2">
-        <v>0.9939999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="M2">
-        <v>0.9675</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -566,16 +560,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" s="2">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="G3" s="2">
         <v>45294</v>
@@ -584,60 +578,19 @@
         <v>45296</v>
       </c>
       <c r="I3">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9939999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="L3">
-        <v>0.9939999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="M3">
-        <v>0.9675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45293</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I4">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>0.9939999999999999</v>
-      </c>
-      <c r="L4">
-        <v>0.9939999999999999</v>
-      </c>
-      <c r="M4">
-        <v>0.9675</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -655,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -667,19 +620,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -688,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -696,13 +649,13 @@
         <v>45294</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -711,22 +664,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>99.39999999999999</v>
+        <v>80</v>
       </c>
       <c r="I2">
-        <v>193.5</v>
+        <v>150</v>
       </c>
       <c r="J2">
-        <v>0.9939999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
-        <v>0.9675</v>
+        <v>0.75</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +697,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -756,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -764,13 +717,13 @@
         <v>45294</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,10 +63,22 @@
     <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000015</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-02|net demand for safety|000020</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000018</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000026</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000019</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000027</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000028</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000020</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -464,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,16 +531,16 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="G2" s="2">
         <v>45294</v>
@@ -537,19 +549,19 @@
         <v>45296</v>
       </c>
       <c r="I2">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K2">
-        <v>0.8</v>
+        <v>0.992</v>
       </c>
       <c r="L2">
-        <v>0.8</v>
+        <v>0.992</v>
       </c>
       <c r="M2">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -560,16 +572,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="G3" s="2">
         <v>45294</v>
@@ -578,19 +590,183 @@
         <v>45296</v>
       </c>
       <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3">
+        <v>0.992</v>
+      </c>
+      <c r="L3">
+        <v>0.992</v>
+      </c>
+      <c r="M3">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I4">
         <v>40</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>0.992</v>
+      </c>
+      <c r="L4">
+        <v>0.992</v>
+      </c>
+      <c r="M4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5">
+        <v>0.992</v>
+      </c>
+      <c r="L5">
+        <v>0.992</v>
+      </c>
+      <c r="M5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6">
+        <v>0.992</v>
+      </c>
+      <c r="L6">
+        <v>0.992</v>
+      </c>
+      <c r="M6">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="K3">
-        <v>0.8</v>
-      </c>
-      <c r="L3">
-        <v>0.8</v>
-      </c>
-      <c r="M3">
-        <v>0.75</v>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45292</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I7">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>0.992</v>
+      </c>
+      <c r="L7">
+        <v>0.992</v>
+      </c>
+      <c r="M7">
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +784,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -620,19 +796,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -641,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -649,13 +825,13 @@
         <v>45294</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -664,22 +840,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>99.2</v>
       </c>
       <c r="I2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="J2">
-        <v>0.8</v>
+        <v>0.992</v>
       </c>
       <c r="K2">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -697,7 +873,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -709,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -717,13 +893,13 @@
         <v>45294</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,22 +63,16 @@
     <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000018</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000026</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000019</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000027</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000028</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000020</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000020</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000030</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000031</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000021</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -115,6 +109,54 @@
   </si>
   <si>
     <t>truck_used</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>missing_element</t>
+  </si>
+  <si>
+    <t>affected_records</t>
+  </si>
+  <si>
+    <t>route_breakdown</t>
+  </si>
+  <si>
+    <t>Global_DemandPriority</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for AO" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for normal" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Data Loss - 1 deployment plans excluded</t>
+  </si>
+  <si>
+    <t>net demand for AO</t>
+  </si>
+  <si>
+    <t>net demand for normal</t>
+  </si>
+  <si>
+    <t>cross_node: 1</t>
   </si>
 </sst>
 </file>
@@ -476,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,16 +573,16 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
       <c r="F2" s="2">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="G2" s="2">
         <v>45294</v>
@@ -549,19 +591,19 @@
         <v>45296</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L2">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M2">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -572,16 +614,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="2">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="G3" s="2">
         <v>45294</v>
@@ -590,19 +632,19 @@
         <v>45296</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L3">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M3">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -613,16 +655,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" s="2">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="G4" s="2">
         <v>45294</v>
@@ -631,19 +673,19 @@
         <v>45296</v>
       </c>
       <c r="I4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L4">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M4">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -654,16 +696,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" s="2">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="G5" s="2">
         <v>45294</v>
@@ -672,101 +714,19 @@
         <v>45296</v>
       </c>
       <c r="I5">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="L5">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="M5">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45299</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6">
-        <v>0.992</v>
-      </c>
-      <c r="L6">
-        <v>0.992</v>
-      </c>
-      <c r="M6">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45292</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I7">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>0.992</v>
-      </c>
-      <c r="L7">
-        <v>0.992</v>
-      </c>
-      <c r="M7">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -784,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -796,19 +756,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -817,7 +777,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -825,13 +785,13 @@
         <v>45294</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -840,22 +800,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="H2">
-        <v>99.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I2">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="J2">
-        <v>0.992</v>
+        <v>0.7040000000000001</v>
       </c>
       <c r="K2">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +833,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -885,7 +845,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -893,13 +853,13 @@
         <v>45294</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -924,12 +884,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,16 +63,7 @@
     <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000020</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000030</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000031</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000021</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000017</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -518,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,16 +564,16 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="G2" s="2">
         <v>45294</v>
@@ -591,142 +582,19 @@
         <v>45296</v>
       </c>
       <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
       <c r="K2">
-        <v>0.7040000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="L2">
-        <v>0.7040000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="M2">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45298</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="L3">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="M3">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45299</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="L4">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="M4">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45292</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I5">
-        <v>60</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="L5">
-        <v>0.7040000000000001</v>
-      </c>
-      <c r="M5">
-        <v>0.66</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +612,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -756,19 +624,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -777,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -785,13 +653,13 @@
         <v>45294</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -800,22 +668,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>70.40000000000001</v>
+        <v>40</v>
       </c>
       <c r="I2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="J2">
-        <v>0.7040000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="K2">
-        <v>0.66</v>
+        <v>0.375</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +701,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -845,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -853,13 +721,13 @@
         <v>45294</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -892,74 +760,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,10 +63,40 @@
     <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000017</t>
+    <t>20240103-PLANT_001-DC_001-LARGE-#2</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000048</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000053</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000015</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000023</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000049</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000024</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000050</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000051</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000008</t>
   </si>
   <si>
     <t>MAT_B</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -509,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,19 +591,19 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="G2" s="2">
         <v>45294</v>
@@ -582,19 +612,388 @@
         <v>45296</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45295</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="K2">
-        <v>0.4</v>
-      </c>
-      <c r="L2">
-        <v>0.4</v>
-      </c>
-      <c r="M2">
-        <v>0.375</v>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.9940000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45298</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45292</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45297</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.585</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +1003,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +1011,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -624,19 +1023,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -645,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -653,13 +1052,13 @@
         <v>45294</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -668,22 +1067,60 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I2">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="J2">
-        <v>0.4</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="K2">
-        <v>0.375</v>
+        <v>0.95</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>78</v>
+      </c>
+      <c r="H3">
+        <v>62.40000000000001</v>
+      </c>
+      <c r="I3">
+        <v>117</v>
+      </c>
+      <c r="J3">
+        <v>0.6240000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.585</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +1138,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -713,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -721,16 +1158,16 @@
         <v>45294</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -760,74 +1197,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,40 +63,22 @@
     <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
-    <t>20240103-PLANT_001-DC_001-LARGE-#2</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-04|net demand for forecast|000048</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-04|net demand for forecast|000053</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000015</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000023</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-05|net demand for forecast|000049</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000032</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000024</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000050</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-07|net demand for forecast|000051</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000033</t>
   </si>
   <si>
     <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000008</t>
   </si>
   <si>
+    <t>MAT_A</t>
+  </si>
+  <si>
     <t>MAT_B</t>
-  </si>
-  <si>
-    <t>MAT_A</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -539,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,19 +573,19 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="G2" s="2">
         <v>45294</v>
@@ -612,19 +594,19 @@
         <v>45296</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K2">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="L2">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M2">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -632,19 +614,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="G3" s="2">
         <v>45294</v>
@@ -653,19 +635,19 @@
         <v>45296</v>
       </c>
       <c r="I3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="L3">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M3">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -673,19 +655,19 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="G4" s="2">
         <v>45294</v>
@@ -694,19 +676,19 @@
         <v>45296</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="L4">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M4">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -714,19 +696,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="G5" s="2">
         <v>45294</v>
@@ -735,265 +717,19 @@
         <v>45296</v>
       </c>
       <c r="I5">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="L5">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M5">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I6">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6">
-        <v>0.9940000000000001</v>
-      </c>
-      <c r="L6">
-        <v>0.9940000000000001</v>
-      </c>
-      <c r="M6">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I7">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7">
-        <v>0.9940000000000001</v>
-      </c>
-      <c r="L7">
-        <v>0.9940000000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8">
-        <v>0.9940000000000001</v>
-      </c>
-      <c r="L8">
-        <v>0.9940000000000001</v>
-      </c>
-      <c r="M8">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H9" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9">
-        <v>0.6240000000000001</v>
-      </c>
-      <c r="L9">
-        <v>0.6240000000000001</v>
-      </c>
-      <c r="M9">
-        <v>0.585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45298</v>
-      </c>
-      <c r="G10" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H10" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I10">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10">
-        <v>0.6240000000000001</v>
-      </c>
-      <c r="L10">
-        <v>0.6240000000000001</v>
-      </c>
-      <c r="M10">
-        <v>0.585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45292</v>
-      </c>
-      <c r="G11" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H11" s="2">
-        <v>45297</v>
-      </c>
-      <c r="I11">
-        <v>60</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.6240000000000001</v>
-      </c>
-      <c r="L11">
-        <v>0.6240000000000001</v>
-      </c>
-      <c r="M11">
-        <v>0.585</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +739,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1011,7 +747,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1023,19 +759,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1044,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1052,13 +788,13 @@
         <v>45294</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1067,60 +803,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H2">
-        <v>99.40000000000001</v>
+        <v>82</v>
       </c>
       <c r="I2">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="J2">
-        <v>0.9940000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K2">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2">
-        <v>45294</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>78</v>
-      </c>
-      <c r="H3">
-        <v>62.40000000000001</v>
-      </c>
-      <c r="I3">
-        <v>117</v>
-      </c>
-      <c r="J3">
-        <v>0.6240000000000001</v>
-      </c>
-      <c r="K3">
-        <v>0.585</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +836,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1150,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1158,16 +856,16 @@
         <v>45294</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1197,74 +895,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
@@ -19,39 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>sending</t>
+  </si>
+  <si>
+    <t>receiving</t>
+  </si>
+  <si>
+    <t>truck_type</t>
+  </si>
+  <si>
+    <t>vehicle_no</t>
+  </si>
   <si>
     <t>vehicle_uid</t>
   </si>
   <si>
-    <t>ori_deployment_uid</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>sending</t>
-  </si>
-  <si>
-    <t>receiving</t>
-  </si>
-  <si>
-    <t>planned_deployment_date</t>
-  </si>
-  <si>
-    <t>actual_ship_date</t>
-  </si>
-  <si>
-    <t>actual_delivery_date</t>
-  </si>
-  <si>
-    <t>delivery_qty</t>
-  </si>
-  <si>
-    <t>truck_type</t>
-  </si>
-  <si>
-    <t>truck_load_pct</t>
+    <t>total_units</t>
+  </si>
+  <si>
+    <t>total_weight</t>
+  </si>
+  <si>
+    <t>total_volume</t>
   </si>
   <si>
     <t>WFR</t>
@@ -60,55 +54,7 @@
     <t>VFR</t>
   </si>
   <si>
-    <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-05|net demand for forecast|000032</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000024</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-06|net demand for forecast|000033</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000008</t>
-  </si>
-  <si>
-    <t>MAT_A</t>
-  </si>
-  <si>
-    <t>MAT_B</t>
-  </si>
-  <si>
-    <t>PLANT_001</t>
-  </si>
-  <si>
-    <t>DC_001</t>
-  </si>
-  <si>
-    <t>LARGE</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>vehicle_no</t>
-  </si>
-  <si>
-    <t>total_units</t>
-  </si>
-  <si>
-    <t>total_weight</t>
-  </si>
-  <si>
-    <t>total_volume</t>
-  </si>
-  <si>
     <t>trigger</t>
-  </si>
-  <si>
-    <t>threshold</t>
   </si>
   <si>
     <t>truck_used</t>
@@ -166,9 +112,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -221,12 +164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,225 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45296</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>0.82</v>
-      </c>
-      <c r="L2">
-        <v>0.82</v>
-      </c>
-      <c r="M2">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3">
-        <v>0.82</v>
-      </c>
-      <c r="L3">
-        <v>0.82</v>
-      </c>
-      <c r="M3">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45297</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>0.82</v>
-      </c>
-      <c r="L4">
-        <v>0.82</v>
-      </c>
-      <c r="M4">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45292</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45294</v>
-      </c>
-      <c r="H5" s="2">
-        <v>45296</v>
-      </c>
-      <c r="I5">
-        <v>60</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5">
-        <v>0.82</v>
-      </c>
-      <c r="L5">
-        <v>0.82</v>
-      </c>
-      <c r="M5">
-        <v>0.78</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -747,78 +483,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2">
-        <v>45294</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>98</v>
-      </c>
-      <c r="H2">
-        <v>82</v>
-      </c>
-      <c r="I2">
-        <v>156</v>
-      </c>
-      <c r="J2">
-        <v>0.82</v>
-      </c>
-      <c r="K2">
-        <v>0.78</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +526,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -836,36 +534,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>45294</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -895,74 +576,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
+++ b/e2e_test_output_12week_forecast_test/simulation_output/module6/Module6Output_20240103.xlsx
@@ -19,26 +19,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+  <si>
+    <t>vehicle_uid</t>
+  </si>
+  <si>
+    <t>ori_deployment_uid</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>sending</t>
+  </si>
+  <si>
+    <t>receiving</t>
+  </si>
+  <si>
+    <t>planned_deployment_date</t>
+  </si>
+  <si>
+    <t>actual_ship_date</t>
+  </si>
+  <si>
+    <t>actual_delivery_date</t>
+  </si>
+  <si>
+    <t>delivery_qty</t>
+  </si>
+  <si>
+    <t>truck_type</t>
+  </si>
+  <si>
+    <t>truck_load_pct</t>
+  </si>
+  <si>
+    <t>WFR</t>
+  </si>
+  <si>
+    <t>VFR</t>
+  </si>
+  <si>
+    <t>20240103-PLANT_001-DC_001-LARGE-#1</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-06|net demand for forecast|000046</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-01|net demand for safety|000023</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
+  </si>
+  <si>
+    <t>PLANT_001</t>
+  </si>
+  <si>
+    <t>DC_001</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>sending</t>
-  </si>
-  <si>
-    <t>receiving</t>
-  </si>
-  <si>
-    <t>truck_type</t>
-  </si>
-  <si>
     <t>vehicle_no</t>
   </si>
   <si>
-    <t>vehicle_uid</t>
-  </si>
-  <si>
     <t>total_units</t>
   </si>
   <si>
@@ -48,13 +96,10 @@
     <t>total_volume</t>
   </si>
   <si>
-    <t>WFR</t>
-  </si>
-  <si>
-    <t>VFR</t>
-  </si>
-  <si>
     <t>trigger</t>
+  </si>
+  <si>
+    <t>threshold</t>
   </si>
   <si>
     <t>truck_used</t>
@@ -112,6 +157,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -164,11 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,19 +512,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45297</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I2">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>0.76</v>
+      </c>
+      <c r="L2">
+        <v>0.76</v>
+      </c>
+      <c r="M2">
+        <v>0.7125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45292</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45294</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45296</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>0.76</v>
+      </c>
+      <c r="L3">
+        <v>0.76</v>
+      </c>
+      <c r="M3">
+        <v>0.7125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,40 +656,78 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>95</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+      <c r="I2">
+        <v>142.5</v>
+      </c>
+      <c r="J2">
+        <v>0.76</v>
+      </c>
+      <c r="K2">
+        <v>0.7125</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +737,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,19 +745,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -576,74 +804,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
